--- a/logins.xlsx
+++ b/logins.xlsx
@@ -428,7 +428,7 @@
         <v>zulayho.matyaqubova</v>
       </c>
       <c r="D2" t="str">
-        <v>PvtVU2SzPw</v>
+        <v>2BUUucmVKu</v>
       </c>
     </row>
     <row r="3">
@@ -442,7 +442,7 @@
         <v>hamza.shamuratov</v>
       </c>
       <c r="D3" t="str">
-        <v>Vp2My2s52r</v>
+        <v>DRvq3wmeRc</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>sayyora.raximova</v>
       </c>
       <c r="D4" t="str">
-        <v>mWkEHJL73d</v>
+        <v>ueHGqL2Ymp</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         <v>dilnavoz.raximova</v>
       </c>
       <c r="D5" t="str">
-        <v>LeCXk3yMYn</v>
+        <v>2rZaCHpDGX</v>
       </c>
     </row>
     <row r="6">
@@ -484,7 +484,7 @@
         <v>mukaddas.rahimova</v>
       </c>
       <c r="D6" t="str">
-        <v>CM6TfGjCmm</v>
+        <v>qYsXq4g2nv</v>
       </c>
     </row>
     <row r="7">
@@ -498,7 +498,7 @@
         <v>nazokat.allaberganova</v>
       </c>
       <c r="D7" t="str">
-        <v>Ny4PpiCp7j</v>
+        <v>fVMkKQKfy2</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         <v>hilola.raximova</v>
       </c>
       <c r="D8" t="str">
-        <v>ECCgNM7dRK</v>
+        <v>b2BUDxFhKs</v>
       </c>
     </row>
     <row r="9">
@@ -526,7 +526,7 @@
         <v>umida.allaberganova</v>
       </c>
       <c r="D9" t="str">
-        <v>f2LA2EZFWj</v>
+        <v>DHNFfaMgKt</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>gulruh.rahimova</v>
       </c>
       <c r="D10" t="str">
-        <v>9dhiLeZKEE</v>
+        <v>Tq8gLGQUmp</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         <v>ozoda.olimova</v>
       </c>
       <c r="D11" t="str">
-        <v>V3FV657KHr</v>
+        <v>LtGEaYu8VL</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>salomat.atamuratova</v>
       </c>
       <c r="D12" t="str">
-        <v>eg9AFx27kC</v>
+        <v>NBaByLZ5hT</v>
       </c>
     </row>
     <row r="13">
@@ -582,7 +582,7 @@
         <v>madinaxon.saidova</v>
       </c>
       <c r="D13" t="str">
-        <v>NYpx22cgpz</v>
+        <v>NyreGYz8CN</v>
       </c>
     </row>
     <row r="14">
@@ -596,7 +596,7 @@
         <v>nodira.jumaniyazova</v>
       </c>
       <c r="D14" t="str">
-        <v>VCUYu8X6ZV</v>
+        <v>wsxsYwqL5s</v>
       </c>
     </row>
     <row r="15">
@@ -610,7 +610,7 @@
         <v>nargiza.xojayeva</v>
       </c>
       <c r="D15" t="str">
-        <v>3QNqi7XWPN</v>
+        <v>3Lqfj5QMrb</v>
       </c>
     </row>
     <row r="16">
@@ -624,7 +624,7 @@
         <v>dilrabo.sharipova</v>
       </c>
       <c r="D16" t="str">
-        <v>YXDRuaET6Q</v>
+        <v>gusCHhgbcM</v>
       </c>
     </row>
     <row r="17">
@@ -638,7 +638,7 @@
         <v>shaxnoza.zayniddinova</v>
       </c>
       <c r="D17" t="str">
-        <v>CrbXUiYeyF</v>
+        <v>tKsWePEsTB</v>
       </c>
     </row>
     <row r="18">
@@ -652,7 +652,7 @@
         <v>rayxon.kadirova</v>
       </c>
       <c r="D18" t="str">
-        <v>35rMCLLsXr</v>
+        <v>8UbcG4zsan</v>
       </c>
     </row>
     <row r="19">
@@ -666,7 +666,7 @@
         <v>user</v>
       </c>
       <c r="D19" t="str">
-        <v>aFPztAtaV6</v>
+        <v>SGuis5qmc3</v>
       </c>
     </row>
     <row r="20">
@@ -680,7 +680,7 @@
         <v>sevaraxon.ahmedova</v>
       </c>
       <c r="D20" t="str">
-        <v>EcY8cUm3ma</v>
+        <v>KKyRTL8fdD</v>
       </c>
     </row>
     <row r="21">
@@ -691,10 +691,10 @@
         <v>AE3515703</v>
       </c>
       <c r="C21" t="str">
-        <v>user10</v>
+        <v>user1</v>
       </c>
       <c r="D21" t="str">
-        <v>PenzQigRkM</v>
+        <v>2nwH9NMPna</v>
       </c>
     </row>
     <row r="22">
@@ -708,7 +708,7 @@
         <v>nigora.sotivoldiyeva</v>
       </c>
       <c r="D22" t="str">
-        <v>NEJDAngWfs</v>
+        <v>RxtLNtqXVV</v>
       </c>
     </row>
     <row r="23">
@@ -722,7 +722,7 @@
         <v>kumushoy.matkarimova</v>
       </c>
       <c r="D23" t="str">
-        <v>68xFTqE5Kj</v>
+        <v>uDKM2nwN2s</v>
       </c>
     </row>
     <row r="24">
@@ -736,7 +736,7 @@
         <v>dilafruz.chottiboyeva</v>
       </c>
       <c r="D24" t="str">
-        <v>xAUcM97E9X</v>
+        <v>mJPj4UmWNx</v>
       </c>
     </row>
     <row r="25">
@@ -750,7 +750,7 @@
         <v>xursandbek.ollaberdiyev</v>
       </c>
       <c r="D25" t="str">
-        <v>uEDK2Ff5DP</v>
+        <v>CxwD8r48Lp</v>
       </c>
     </row>
     <row r="26">
@@ -764,7 +764,7 @@
         <v>fotima.setmamatova</v>
       </c>
       <c r="D26" t="str">
-        <v>dexweSLWeV</v>
+        <v>6zrs2kx5Dh</v>
       </c>
     </row>
     <row r="27">
@@ -775,10 +775,10 @@
         <v>АЕ3515703</v>
       </c>
       <c r="C27" t="str">
-        <v>user11</v>
+        <v>user2</v>
       </c>
       <c r="D27" t="str">
-        <v>FCmdbbYuWB</v>
+        <v>JAiukSHt7M</v>
       </c>
     </row>
     <row r="28">
@@ -792,7 +792,7 @@
         <v>nurbek.eshmurodov</v>
       </c>
       <c r="D28" t="str">
-        <v>LJ9DueHhAK</v>
+        <v>dSrH8vxnhD</v>
       </c>
     </row>
     <row r="29">
@@ -806,7 +806,7 @@
         <v>rayxon.kadirova1</v>
       </c>
       <c r="D29" t="str">
-        <v>wyMJS3Zv2y</v>
+        <v>PEMZ2kSXbZ</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +820,7 @@
         <v>gayratbek.allaberganov</v>
       </c>
       <c r="D30" t="str">
-        <v>qFiVcCewxZ</v>
+        <v>pp3QbaE2RS</v>
       </c>
     </row>
     <row r="31">
@@ -834,7 +834,7 @@
         <v>hulkaraxon.rajapboyeva</v>
       </c>
       <c r="D31" t="str">
-        <v>DkinCxcMn2</v>
+        <v>hGfvsSGFa9</v>
       </c>
     </row>
     <row r="32">
@@ -848,7 +848,7 @@
         <v>shoxista.aminova</v>
       </c>
       <c r="D32" t="str">
-        <v>cDzAGLTNEq</v>
+        <v>5aZC88L7yK</v>
       </c>
     </row>
     <row r="33">
@@ -862,7 +862,7 @@
         <v>elmira.sattorova</v>
       </c>
       <c r="D33" t="str">
-        <v>QvXmKWR2SP</v>
+        <v>RUKqHce276</v>
       </c>
     </row>
     <row r="34">
@@ -876,7 +876,7 @@
         <v>dilnoza.qosimova</v>
       </c>
       <c r="D34" t="str">
-        <v>Tcm8waGRKc</v>
+        <v>XZnkMbx54E</v>
       </c>
     </row>
     <row r="35">
@@ -890,7 +890,7 @@
         <v>adolat.ergashova</v>
       </c>
       <c r="D35" t="str">
-        <v>uAtS98V47k</v>
+        <v>iySgjRE9B7</v>
       </c>
     </row>
     <row r="36">
@@ -904,7 +904,7 @@
         <v>eldor.matkarimov</v>
       </c>
       <c r="D36" t="str">
-        <v>Zamgq8CGJt</v>
+        <v>DdZ7iddeKb</v>
       </c>
     </row>
     <row r="37">
@@ -918,7 +918,7 @@
         <v>sayyora.raximova1</v>
       </c>
       <c r="D37" t="str">
-        <v>VjTU7HcVvX</v>
+        <v>eFXPKddzPa</v>
       </c>
     </row>
     <row r="38">
@@ -932,7 +932,7 @@
         <v>murodjon.boltayev</v>
       </c>
       <c r="D38" t="str">
-        <v>KBTXxKY88p</v>
+        <v>J3NxSc8QLt</v>
       </c>
     </row>
     <row r="39">
@@ -946,7 +946,7 @@
         <v>zarima.xakimova</v>
       </c>
       <c r="D39" t="str">
-        <v>2kMgCYbumX</v>
+        <v>CfserDNJ8x</v>
       </c>
     </row>
     <row r="40">
@@ -960,7 +960,7 @@
         <v>hilola.raximova1</v>
       </c>
       <c r="D40" t="str">
-        <v>kD299xRKcd</v>
+        <v>ZCajpH8TdS</v>
       </c>
     </row>
     <row r="41">
@@ -974,7 +974,7 @@
         <v>saodat.maxmudova</v>
       </c>
       <c r="D41" t="str">
-        <v>PqXxn9EQsF</v>
+        <v>hGWwTvyGSH</v>
       </c>
     </row>
     <row r="42">
@@ -988,7 +988,7 @@
         <v>firuza.egamqulova</v>
       </c>
       <c r="D42" t="str">
-        <v>MbdqfQDBGN</v>
+        <v>w76qLHbrkJ</v>
       </c>
     </row>
     <row r="43">
@@ -1002,7 +1002,7 @@
         <v>kumushoy.matkarimova1</v>
       </c>
       <c r="D43" t="str">
-        <v>iQ9XTfZeNq</v>
+        <v>DgFpf6LgUp</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         <v>shaydo.baltayeva</v>
       </c>
       <c r="D44" t="str">
-        <v>JZd6g2snYB</v>
+        <v>azMvi8jizz</v>
       </c>
     </row>
     <row r="45">
@@ -1030,7 +1030,7 @@
         <v>gulora.sultanova</v>
       </c>
       <c r="D45" t="str">
-        <v>AxYhUxYtqu</v>
+        <v>P7YN7ALj7P</v>
       </c>
     </row>
     <row r="46">
@@ -1044,7 +1044,7 @@
         <v>rozigul.raximova</v>
       </c>
       <c r="D46" t="str">
-        <v>bzfpEsNmge</v>
+        <v>uLFrEmXt4m</v>
       </c>
     </row>
     <row r="47">
@@ -1058,7 +1058,7 @@
         <v>barno.radjabbayevna</v>
       </c>
       <c r="D47" t="str">
-        <v>2rJNeUp4HX</v>
+        <v>zgQNCGDqLE</v>
       </c>
     </row>
     <row r="48">
@@ -1072,7 +1072,7 @@
         <v>madina.sapayeva</v>
       </c>
       <c r="D48" t="str">
-        <v>4VprXstuCd</v>
+        <v>xX7MiKjqL8</v>
       </c>
     </row>
     <row r="49">
@@ -1086,7 +1086,7 @@
         <v>nargiza.xudayarova</v>
       </c>
       <c r="D49" t="str">
-        <v>8D428RQX5H</v>
+        <v>Ddjm34pzjg</v>
       </c>
     </row>
     <row r="50">
@@ -1100,7 +1100,7 @@
         <v>gulzar.usmanova</v>
       </c>
       <c r="D50" t="str">
-        <v>MnCKTXcJ83</v>
+        <v>xThuAGAQC3</v>
       </c>
     </row>
     <row r="51">
@@ -1114,7 +1114,7 @@
         <v>hamro.xajiyev</v>
       </c>
       <c r="D51" t="str">
-        <v>jTqzgtncux</v>
+        <v>skCZ83ZQvA</v>
       </c>
     </row>
     <row r="52">
@@ -1128,7 +1128,7 @@
         <v>laylo.turdiyeva</v>
       </c>
       <c r="D52" t="str">
-        <v>vznSyyiBVT</v>
+        <v>aT3n7DZSPS</v>
       </c>
     </row>
     <row r="53">
@@ -1142,7 +1142,7 @@
         <v>shaxodat.abdurasulova</v>
       </c>
       <c r="D53" t="str">
-        <v>UKSdKzLnTv</v>
+        <v>t3CQdeUVxz</v>
       </c>
     </row>
     <row r="54">
@@ -1156,7 +1156,7 @@
         <v>sayyora.raximova2</v>
       </c>
       <c r="D54" t="str">
-        <v>Th2CtG8Hga</v>
+        <v>JqYAcYufSQ</v>
       </c>
     </row>
     <row r="55">
@@ -1170,7 +1170,7 @@
         <v>sanjarbek.kuryazov</v>
       </c>
       <c r="D55" t="str">
-        <v>sxVvWxVmmz</v>
+        <v>NQn9iQSw59</v>
       </c>
     </row>
     <row r="56">
@@ -1184,7 +1184,7 @@
         <v>hulkaraxon.rajapboyeva1</v>
       </c>
       <c r="D56" t="str">
-        <v>5DtgHnN6P5</v>
+        <v>Y7YG99Ppmt</v>
       </c>
     </row>
     <row r="57">
@@ -1198,7 +1198,7 @@
         <v>dilshod.nurullayev</v>
       </c>
       <c r="D57" t="str">
-        <v>YJ7dRFAqKM</v>
+        <v>jd8MLeNVRf</v>
       </c>
     </row>
     <row r="58">
@@ -1209,10 +1209,10 @@
         <v>AB 9934684</v>
       </c>
       <c r="C58" t="str">
-        <v>user12</v>
+        <v>user3</v>
       </c>
       <c r="D58" t="str">
-        <v>CcxLS292Fh</v>
+        <v>s6tPLubqA5</v>
       </c>
     </row>
     <row r="59">
@@ -1226,7 +1226,7 @@
         <v>mukaddas.rahimova1</v>
       </c>
       <c r="D59" t="str">
-        <v>YLKw9CzHhG</v>
+        <v>hYRHXSuNvC</v>
       </c>
     </row>
     <row r="60">
@@ -1240,7 +1240,7 @@
         <v>safiyaxon.abduraximova</v>
       </c>
       <c r="D60" t="str">
-        <v>z5XvwW3zMc</v>
+        <v>Zz5sdjdt2W</v>
       </c>
     </row>
     <row r="61">
@@ -1254,7 +1254,7 @@
         <v>xikmat.satimov</v>
       </c>
       <c r="D61" t="str">
-        <v>XLLiaJRHhX</v>
+        <v>EkjKWP2X5D</v>
       </c>
     </row>
     <row r="62">
@@ -1268,7 +1268,7 @@
         <v>ranojon.matchonova</v>
       </c>
       <c r="D62" t="str">
-        <v>WY2UAjqWYu</v>
+        <v>q3AjnWYn28</v>
       </c>
     </row>
     <row r="63">
@@ -1282,7 +1282,7 @@
         <v>muqaddas.nurjanova</v>
       </c>
       <c r="D63" t="str">
-        <v>sKVBRjuXd7</v>
+        <v>kpQPjEPxup</v>
       </c>
     </row>
     <row r="64">
@@ -1296,7 +1296,7 @@
         <v>zamira.maxkamova</v>
       </c>
       <c r="D64" t="str">
-        <v>6LLBKyMM4K</v>
+        <v>2xAAshaFF5</v>
       </c>
     </row>
     <row r="65">
@@ -1310,7 +1310,7 @@
         <v>shaxlo.sadullayeva</v>
       </c>
       <c r="D65" t="str">
-        <v>JcPG7nCJza</v>
+        <v>x53awSgxsc</v>
       </c>
     </row>
     <row r="66">
@@ -1324,7 +1324,7 @@
         <v>sarbinaz.shaniyazova</v>
       </c>
       <c r="D66" t="str">
-        <v>RPh4daepaT</v>
+        <v>XTeuVWgTQV</v>
       </c>
     </row>
     <row r="67">
@@ -1338,7 +1338,7 @@
         <v>nargiza.xojayeva1</v>
       </c>
       <c r="D67" t="str">
-        <v>SLmrLJKSH7</v>
+        <v>MHnFfGV68B</v>
       </c>
     </row>
     <row r="68">
@@ -1352,7 +1352,7 @@
         <v>naima.jabborova</v>
       </c>
       <c r="D68" t="str">
-        <v>69cTMijtGw</v>
+        <v>CLRNg6UA57</v>
       </c>
     </row>
     <row r="69">
@@ -1366,7 +1366,7 @@
         <v>naima.jabborova1</v>
       </c>
       <c r="D69" t="str">
-        <v>skXBX6UadW</v>
+        <v>8fVRMJitFe</v>
       </c>
     </row>
     <row r="70">
@@ -1380,7 +1380,7 @@
         <v>nodira.jumaniyazova1</v>
       </c>
       <c r="D70" t="str">
-        <v>LdYqK9Y9F9</v>
+        <v>viuMYcTb2X</v>
       </c>
     </row>
     <row r="71">
@@ -1394,7 +1394,7 @@
         <v>muhiddin.qurambayev</v>
       </c>
       <c r="D71" t="str">
-        <v>tbUhD2m34M</v>
+        <v>5AExMKhy2e</v>
       </c>
     </row>
     <row r="72">
@@ -1408,7 +1408,7 @@
         <v>zulxumor.artikova</v>
       </c>
       <c r="D72" t="str">
-        <v>HuJM322YBw</v>
+        <v>GNX9AM363M</v>
       </c>
     </row>
     <row r="73">
@@ -1422,7 +1422,7 @@
         <v>azizbek.salayev</v>
       </c>
       <c r="D73" t="str">
-        <v>5Uy3bQbn9D</v>
+        <v>JxYpk2QKrE</v>
       </c>
     </row>
     <row r="74">
@@ -1436,7 +1436,7 @@
         <v>fotima.setmamatova1</v>
       </c>
       <c r="D74" t="str">
-        <v>QT5XTGp9dN</v>
+        <v>SxBtp4LcTP</v>
       </c>
     </row>
     <row r="75">
@@ -1450,7 +1450,7 @@
         <v>shaxnoza.xudayberganova</v>
       </c>
       <c r="D75" t="str">
-        <v>F5krt3kbVw</v>
+        <v>mv2QLSQzza</v>
       </c>
     </row>
     <row r="76">
@@ -1464,7 +1464,7 @@
         <v>sirojaddin.kutliyev</v>
       </c>
       <c r="D76" t="str">
-        <v>n2pJFpDpbE</v>
+        <v>DCudEFX9cg</v>
       </c>
     </row>
     <row r="77">
@@ -1478,7 +1478,7 @@
         <v>hilola.masharipova</v>
       </c>
       <c r="D77" t="str">
-        <v>gmhGkcPqZx</v>
+        <v>hbW7mYMivy</v>
       </c>
     </row>
     <row r="78">
@@ -1492,7 +1492,7 @@
         <v>zinat.durdiyev</v>
       </c>
       <c r="D78" t="str">
-        <v>jwBVJJ9k6g</v>
+        <v>M3KEDS8GQS</v>
       </c>
     </row>
     <row r="79">
@@ -1506,7 +1506,7 @@
         <v>gulzora.usmanova</v>
       </c>
       <c r="D79" t="str">
-        <v>AK5av9xWBL</v>
+        <v>KR8mE6stfE</v>
       </c>
     </row>
     <row r="80">
@@ -1520,7 +1520,7 @@
         <v>sayyora.raximova3</v>
       </c>
       <c r="D80" t="str">
-        <v>7yzZKHTRKQ</v>
+        <v>5WuNZxv6x7</v>
       </c>
     </row>
     <row r="81">
@@ -1534,7 +1534,7 @@
         <v>mukaddas.rahimova2</v>
       </c>
       <c r="D81" t="str">
-        <v>54YnL6GXZd</v>
+        <v>ZK3s9YQ79E</v>
       </c>
     </row>
     <row r="82">
@@ -1548,7 +1548,7 @@
         <v>maryamjon.matchonova</v>
       </c>
       <c r="D82" t="str">
-        <v>MFrZZjfjDA</v>
+        <v>rhxPXN6ACQ</v>
       </c>
     </row>
     <row r="83">
@@ -1562,7 +1562,7 @@
         <v>maryamjon.matchonova1</v>
       </c>
       <c r="D83" t="str">
-        <v>jTccmz8xxR</v>
+        <v>AByDx2aYxP</v>
       </c>
     </row>
   </sheetData>
